--- a/data/financial_statements/socf/DHI.xlsx
+++ b/data/financial_statements/socf/DHI.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,1145 +584,1172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>968300000</v>
+      </c>
+      <c r="C2">
         <v>1648200000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1659300000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1442300000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1145800000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1345500000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1116600000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>933900000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>795200000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>831200000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>632900000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>483900000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>432500000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>503900000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>473600000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>354400000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>286700000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>468900000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>453700000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>350900000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>188800000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>313300000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>289000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>229200000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>206900000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>283700000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>249800000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>195100000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>157700000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>238900000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>221400000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>147900000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>142500000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>166200000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>113200000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>130900000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>123200000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>139500000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>145900000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>111000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>21000000</v>
+        <v>19800000</v>
       </c>
       <c r="C3">
-        <v>21000000</v>
+        <v>21200000</v>
       </c>
       <c r="D3">
-        <v>20000000</v>
+        <v>20900000</v>
       </c>
       <c r="E3">
-        <v>19000000</v>
+        <v>19900000</v>
       </c>
       <c r="F3">
-        <v>17000000</v>
+        <v>19400000</v>
       </c>
       <c r="G3">
+        <v>18500000</v>
+      </c>
+      <c r="H3">
         <v>19500000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>21200000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>22900000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>25400000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>20600000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>22500000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>22100000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>22400000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>21300000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>19700000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>19500000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>19400000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>17400000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>18100000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>17400000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>15400000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>14400000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>14200000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>15700000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>28100000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>15100000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>15400000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>15000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>25700000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>15700000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>14500000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>13600000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>13800000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>14500000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>19400000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>18100000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>16700000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>15700000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>14800000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>53600000</v>
+      </c>
+      <c r="C4">
         <v>80300000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>26100000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>52000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>46200000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>24800000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>41500000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>28900000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>18900000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>38300000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>17600000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>4300000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>-4000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>40700000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>13700000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>11100000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>27900000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>25500000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>39200000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>64700000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>128100000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>68400000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>85800000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>38900000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>17100000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>62500000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>35300000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>29800000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>23600000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>14200000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>27400000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>23200000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>28500000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>44500000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>51000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>17500000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>15200000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>77700000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>47100000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>9500000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>1737000000</v>
+        <v>-357000000</v>
       </c>
       <c r="C5">
-        <v>-1877000000</v>
+        <v>-593600000</v>
       </c>
       <c r="D5">
-        <v>-1658000000</v>
+        <v>-473700000</v>
       </c>
       <c r="E5">
-        <v>-1664000000</v>
+        <v>-336400000</v>
       </c>
       <c r="F5">
-        <v>-170000000</v>
+        <v>-319500000</v>
       </c>
       <c r="G5">
+        <v>-107600000</v>
+      </c>
+      <c r="H5">
         <v>-196000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-963000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-1308000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-99000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>84000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-340700000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>11899000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>174200000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>49100000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>2300000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>14900000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-40700000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>95300000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>1035500000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>818100000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>566200000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>152700000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-3500000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-40400000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-105600000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-14100000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>139500000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>-1000000</v>
+        <v>-472300000</v>
       </c>
       <c r="C7">
-        <v>443000000</v>
+        <v>-900000</v>
       </c>
       <c r="D7">
-        <v>288000000</v>
+        <v>442700000</v>
       </c>
       <c r="E7">
-        <v>306000000</v>
+        <v>287500000</v>
       </c>
       <c r="F7">
-        <v>109000000</v>
+        <v>306200000</v>
       </c>
       <c r="G7">
+        <v>109400000</v>
+      </c>
+      <c r="H7">
         <v>-82400000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>563500000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>254600000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>152600000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>260900000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>58100000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>94600000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>-22400000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>88900000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-29100000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>88800000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>23500000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>120100000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>-39300000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>24800000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>-40500000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>129500000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>27900000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>-29700000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>132000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>8400000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-52700000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>38900000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>21400000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-43500000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>117500000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>-1600000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>80100000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>75300000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="V8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8">
         <v>-14300000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>-10000000</v>
       </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
       <c r="AM8">
         <v>0</v>
       </c>
       <c r="AN8">
         <v>0</v>
       </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>-2346000000</v>
+        <v>616700000</v>
       </c>
       <c r="C9">
-        <v>-9000000</v>
+        <v>-30600000</v>
       </c>
       <c r="D9">
-        <v>-798000000</v>
+        <v>-1403500000</v>
       </c>
       <c r="E9">
-        <v>-10000000</v>
+        <v>-2125800000</v>
       </c>
       <c r="F9">
-        <v>-767000000</v>
+        <v>-1372200000</v>
       </c>
       <c r="G9">
+        <v>-821700000</v>
+      </c>
+      <c r="H9">
         <v>-778800000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-1450300000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-1343700000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-214800000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>52000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-850100100</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-658999900</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>266800000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-55100000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-444700000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-796000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-298600000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>-225100000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-418200000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-434100000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>283600000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-572200000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>-356100000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-298100000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>200700000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-370500000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>-220300000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-145100000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>194100000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>31100000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-228500000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-270100000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>-429700000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-604700000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-320300000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-150100000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-323800000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-584800000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>-394400000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>1125000000</v>
+        <v>829100000</v>
       </c>
       <c r="C10">
-        <v>272000000</v>
+        <v>1124600000</v>
       </c>
       <c r="D10">
-        <v>-661000000</v>
+        <v>271800000</v>
       </c>
       <c r="E10">
-        <v>-174000000</v>
+        <v>-660500000</v>
       </c>
       <c r="F10">
-        <v>569000000</v>
+        <v>-174100000</v>
       </c>
       <c r="G10">
+        <v>568900000</v>
+      </c>
+      <c r="H10">
         <v>120400000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>97200000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-252100000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>832700000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>984000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-281300000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-113800000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>811400000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>542400000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-88600000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-373100000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>238700000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>405300000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-23800000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-75000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>625900000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-50000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-107500000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-28200000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>535300000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>61700000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>28400000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-1500000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>511800000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>357400000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-39800000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-129000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-87700000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-307900000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-258100000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-7700000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-93000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-296000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-183800000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>-47500000</v>
+      </c>
+      <c r="C11">
         <v>-40200000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-35500000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-41600000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-30900000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-47500000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-9700000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-101900000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-70700000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-66400000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-59800000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-12400000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-18400000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-62500000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-3500000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>6900000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-21200000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>3600000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-23400000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>194000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-19600000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-53800000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-46000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-35300000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-22200000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-20900000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-24800000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-20300000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-20100000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>43200000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-19300000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-12700000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-11300000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-50300000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-17100000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-14500000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-18300000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-17400000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-15300000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-11300000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>-97100000</v>
       </c>
       <c r="C12">
-        <v>-272000000</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-271500000</v>
       </c>
       <c r="G12">
+        <v>-100000</v>
+      </c>
+      <c r="H12">
         <v>-200000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-1200000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-23000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-1200000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-2900000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-4900000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-700000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-4900000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-1300000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-16600000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-293000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-1100000</v>
       </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
       <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
         <v>-1700000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-156400000</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
       <c r="W12">
         <v>0</v>
       </c>
@@ -1616,81 +1757,81 @@
         <v>0</v>
       </c>
       <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
         <v>-4100000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-82200000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-2200000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-68700000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-21400000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-188200000</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
         <v>-34500000</v>
       </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
       <c r="AM12">
         <v>0</v>
       </c>
       <c r="AN12">
         <v>0</v>
       </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="AM13">
         <v>0</v>
       </c>
       <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
         <v>96600000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14">
-        <v>2200000</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H14">
         <v>2200000</v>
       </c>
       <c r="I14">
+        <v>2200000</v>
+      </c>
+      <c r="J14">
         <v>2100000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1900000</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
       <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>500000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1900000</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
         <v>0</v>
       </c>
@@ -1698,961 +1839,985 @@
         <v>0</v>
       </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>4400000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2100000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>300000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>200000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>14900000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>35800000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-14800000</v>
       </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
         <v>1400000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>60000000</v>
+        <v>1700000</v>
       </c>
       <c r="C15">
-        <v>-6000000</v>
+        <v>-1800000</v>
       </c>
       <c r="D15">
-        <v>-54000000</v>
+        <v>2800000</v>
       </c>
       <c r="E15">
-        <v>34000000</v>
+        <v>-600000</v>
       </c>
       <c r="F15">
-        <v>83000000</v>
+        <v>4400000</v>
       </c>
       <c r="G15">
+        <v>2300000</v>
+      </c>
+      <c r="H15">
         <v>-900000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-1600000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2300000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>4300000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-3100000</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
       <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>-600000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>4100000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-400000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-1000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-600000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>6900000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-800000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>100000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>10800000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-1600000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-6800000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-5000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>53500000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-31500000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>35800000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-2100000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-16400000</v>
-      </c>
-      <c r="AE15">
-        <v>-2700000</v>
       </c>
       <c r="AF15">
         <v>-2700000</v>
       </c>
       <c r="AG15">
+        <v>-2700000</v>
+      </c>
+      <c r="AH15">
         <v>-2600000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>7300000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>58600000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>800000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-4500000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-10700000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-15100000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>500000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>-142900000</v>
+      </c>
+      <c r="C16">
         <v>-42000000</v>
       </c>
-      <c r="C16">
-        <v>-304000000</v>
-      </c>
       <c r="D16">
-        <v>-42000000</v>
+        <v>-304200000</v>
       </c>
       <c r="E16">
+        <v>-42200000</v>
+      </c>
+      <c r="F16">
+        <v>-26500000</v>
+      </c>
+      <c r="G16">
+        <v>-45300000</v>
+      </c>
+      <c r="H16">
+        <v>-10800000</v>
+      </c>
+      <c r="I16">
+        <v>-104700000</v>
+      </c>
+      <c r="J16">
+        <v>-91400000</v>
+      </c>
+      <c r="K16">
+        <v>-65700000</v>
+      </c>
+      <c r="L16">
+        <v>-65800000</v>
+      </c>
+      <c r="M16">
+        <v>-16800000</v>
+      </c>
+      <c r="N16">
+        <v>-17800000</v>
+      </c>
+      <c r="O16">
+        <v>-67700000</v>
+      </c>
+      <c r="P16">
+        <v>-5200000</v>
+      </c>
+      <c r="Q16">
+        <v>-10700000</v>
+      </c>
+      <c r="R16">
+        <v>-310400000</v>
+      </c>
+      <c r="S16">
+        <v>11500000</v>
+      </c>
+      <c r="T16">
+        <v>-23900000</v>
+      </c>
+      <c r="U16">
+        <v>192400000</v>
+      </c>
+      <c r="V16">
+        <v>-161000000</v>
+      </c>
+      <c r="W16">
+        <v>-43000000</v>
+      </c>
+      <c r="X16">
+        <v>-47600000</v>
+      </c>
+      <c r="Y16">
+        <v>-42100000</v>
+      </c>
+      <c r="Z16">
+        <v>-31300000</v>
+      </c>
+      <c r="AA16">
+        <v>-85400000</v>
+      </c>
+      <c r="AB16">
+        <v>-20500000</v>
+      </c>
+      <c r="AC16">
+        <v>15500000</v>
+      </c>
+      <c r="AD16">
+        <v>-22200000</v>
+      </c>
+      <c r="AE16">
+        <v>39400000</v>
+      </c>
+      <c r="AF16">
+        <v>-105500000</v>
+      </c>
+      <c r="AG16">
+        <v>-15400000</v>
+      </c>
+      <c r="AH16">
+        <v>-13900000</v>
+      </c>
+      <c r="AI16">
+        <v>-64400000</v>
+      </c>
+      <c r="AJ16">
+        <v>-146700000</v>
+      </c>
+      <c r="AK16">
+        <v>-13700000</v>
+      </c>
+      <c r="AL16">
+        <v>-57300000</v>
+      </c>
+      <c r="AM16">
+        <v>-28100000</v>
+      </c>
+      <c r="AN16">
+        <v>-29000000</v>
+      </c>
+      <c r="AO16">
+        <v>85800000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>-125000000</v>
+      </c>
+      <c r="D17">
+        <v>574600000</v>
+      </c>
+      <c r="E17">
+        <v>-200000</v>
+      </c>
+      <c r="F17">
+        <v>-600000</v>
+      </c>
+      <c r="G17">
+        <v>594000000</v>
+      </c>
+      <c r="H17">
+        <v>27300000</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>94000000</v>
+      </c>
+      <c r="K17">
+        <v>-3599900</v>
+      </c>
+      <c r="L17">
+        <v>-5600000</v>
+      </c>
+      <c r="M17">
+        <v>176700000</v>
+      </c>
+      <c r="N17">
+        <v>495700000</v>
+      </c>
+      <c r="O17">
+        <v>-150000000</v>
+      </c>
+      <c r="P17">
+        <v>-291900100</v>
+      </c>
+      <c r="Q17">
+        <v>-18200000</v>
+      </c>
+      <c r="R17">
+        <v>302200000</v>
+      </c>
+      <c r="S17">
+        <v>-3000000</v>
+      </c>
+      <c r="T17">
+        <v>-176300000</v>
+      </c>
+      <c r="U17">
+        <v>-127000000</v>
+      </c>
+      <c r="V17">
+        <v>288100000</v>
+      </c>
+      <c r="W17">
+        <v>-5900000</v>
+      </c>
+      <c r="X17">
+        <v>-350900000</v>
+      </c>
+      <c r="Y17">
+        <v>-200000</v>
+      </c>
+      <c r="Z17">
+        <v>-300000</v>
+      </c>
+      <c r="AA17">
+        <v>-27200000</v>
+      </c>
+      <c r="AB17">
+        <v>-364600000</v>
+      </c>
+      <c r="AC17">
+        <v>-72000000</v>
+      </c>
+      <c r="AD17">
+        <v>-81000000</v>
+      </c>
+      <c r="AE17">
+        <v>7200000</v>
+      </c>
+      <c r="AF17">
+        <v>-124700000</v>
+      </c>
+      <c r="AG17">
+        <v>212900000</v>
+      </c>
+      <c r="AH17">
+        <v>39100000</v>
+      </c>
+      <c r="AI17">
+        <v>218300000</v>
+      </c>
+      <c r="AJ17">
+        <v>79000000</v>
+      </c>
+      <c r="AK17">
+        <v>389200000</v>
+      </c>
+      <c r="AL17">
+        <v>-55800000</v>
+      </c>
+      <c r="AM17">
+        <v>412900000</v>
+      </c>
+      <c r="AN17">
+        <v>-197700000</v>
+      </c>
+      <c r="AO17">
+        <v>666000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <v>-118100000</v>
+      </c>
+      <c r="C18">
+        <v>-271800000</v>
+      </c>
+      <c r="D18">
+        <v>-289900000</v>
+      </c>
+      <c r="E18">
+        <v>-264400000</v>
+      </c>
+      <c r="F18">
+        <v>-303700000</v>
+      </c>
+      <c r="G18">
+        <v>-186100000</v>
+      </c>
+      <c r="H18">
+        <v>-231900000</v>
+      </c>
+      <c r="I18">
+        <v>-343100000</v>
+      </c>
+      <c r="J18">
+        <v>-53800000</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>-197300000</v>
+      </c>
+      <c r="N18">
+        <v>-163100000</v>
+      </c>
+      <c r="O18">
+        <v>-17600000</v>
+      </c>
+      <c r="P18">
+        <v>-145300000</v>
+      </c>
+      <c r="Q18">
+        <v>-75600000</v>
+      </c>
+      <c r="R18">
+        <v>-140600000</v>
+      </c>
+      <c r="S18">
+        <v>-52600000</v>
+      </c>
+      <c r="T18">
         <v>-27000000</v>
       </c>
-      <c r="F16">
-        <v>-45000000</v>
-      </c>
-      <c r="G16">
-        <v>-10800000</v>
-      </c>
-      <c r="H16">
-        <v>-104700000</v>
-      </c>
-      <c r="I16">
-        <v>-91400000</v>
-      </c>
-      <c r="J16">
-        <v>-65700000</v>
-      </c>
-      <c r="K16">
-        <v>-65800000</v>
-      </c>
-      <c r="L16">
-        <v>-16800000</v>
-      </c>
-      <c r="M16">
-        <v>-17800000</v>
-      </c>
-      <c r="N16">
-        <v>-67700000</v>
-      </c>
-      <c r="O16">
-        <v>-5200000</v>
-      </c>
-      <c r="P16">
-        <v>-10700000</v>
-      </c>
-      <c r="Q16">
-        <v>-310400000</v>
-      </c>
-      <c r="R16">
-        <v>11500000</v>
-      </c>
-      <c r="S16">
-        <v>-23900000</v>
-      </c>
-      <c r="T16">
-        <v>192400000</v>
-      </c>
-      <c r="U16">
-        <v>-161000000</v>
-      </c>
-      <c r="V16">
-        <v>-43000000</v>
-      </c>
-      <c r="W16">
-        <v>-47600000</v>
-      </c>
-      <c r="X16">
-        <v>-42100000</v>
-      </c>
-      <c r="Y16">
-        <v>-31300000</v>
-      </c>
-      <c r="Z16">
-        <v>-85400000</v>
-      </c>
-      <c r="AA16">
-        <v>-20500000</v>
-      </c>
-      <c r="AB16">
-        <v>15500000</v>
-      </c>
-      <c r="AC16">
-        <v>-22200000</v>
-      </c>
-      <c r="AD16">
-        <v>39400000</v>
-      </c>
-      <c r="AE16">
-        <v>-105500000</v>
-      </c>
-      <c r="AF16">
-        <v>-15400000</v>
-      </c>
-      <c r="AG16">
-        <v>-13900000</v>
-      </c>
-      <c r="AH16">
-        <v>-64400000</v>
-      </c>
-      <c r="AI16">
-        <v>-146700000</v>
-      </c>
-      <c r="AJ16">
-        <v>-13700000</v>
-      </c>
-      <c r="AK16">
-        <v>-57300000</v>
-      </c>
-      <c r="AL16">
-        <v>-28100000</v>
-      </c>
-      <c r="AM16">
-        <v>-29000000</v>
-      </c>
-      <c r="AN16">
-        <v>85800000</v>
+      <c r="U18">
+        <v>-22500000</v>
+      </c>
+      <c r="V18">
+        <v>-25400000</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>-69300000</v>
+      </c>
+      <c r="Y18">
+        <v>8700000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>88000000</v>
-      </c>
-      <c r="C17">
-        <v>401000000</v>
-      </c>
-      <c r="D17">
-        <v>319000000</v>
-      </c>
-      <c r="E17">
-        <v>-235000000</v>
-      </c>
-      <c r="F17">
-        <v>995000000</v>
-      </c>
-      <c r="G17">
-        <v>27300000</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>94000000</v>
-      </c>
-      <c r="J17">
-        <v>-3599900</v>
-      </c>
-      <c r="K17">
-        <v>-5600000</v>
-      </c>
-      <c r="L17">
-        <v>176700000</v>
-      </c>
-      <c r="M17">
-        <v>495700000</v>
-      </c>
-      <c r="N17">
-        <v>-150000000</v>
-      </c>
-      <c r="O17">
-        <v>-291900100</v>
-      </c>
-      <c r="P17">
-        <v>-18200000</v>
-      </c>
-      <c r="Q17">
-        <v>302200000</v>
-      </c>
-      <c r="R17">
-        <v>-3000000</v>
-      </c>
-      <c r="S17">
-        <v>-176300000</v>
-      </c>
-      <c r="T17">
-        <v>-127000000</v>
-      </c>
-      <c r="U17">
-        <v>288100000</v>
-      </c>
-      <c r="V17">
-        <v>-5900000</v>
-      </c>
-      <c r="W17">
-        <v>-350900000</v>
-      </c>
-      <c r="X17">
-        <v>-200000</v>
-      </c>
-      <c r="Y17">
-        <v>-300000</v>
-      </c>
-      <c r="Z17">
-        <v>-27200000</v>
-      </c>
-      <c r="AA17">
-        <v>-364600000</v>
-      </c>
-      <c r="AB17">
-        <v>-72000000</v>
-      </c>
-      <c r="AC17">
-        <v>-81000000</v>
-      </c>
-      <c r="AD17">
-        <v>7200000</v>
-      </c>
-      <c r="AE17">
-        <v>-124700000</v>
-      </c>
-      <c r="AF17">
-        <v>212900000</v>
-      </c>
-      <c r="AG17">
-        <v>39100000</v>
-      </c>
-      <c r="AH17">
-        <v>218300000</v>
-      </c>
-      <c r="AI17">
-        <v>79000000</v>
-      </c>
-      <c r="AJ17">
-        <v>389200000</v>
-      </c>
-      <c r="AK17">
-        <v>-55800000</v>
-      </c>
-      <c r="AL17">
-        <v>412900000</v>
-      </c>
-      <c r="AM17">
-        <v>-197700000</v>
-      </c>
-      <c r="AN17">
-        <v>666000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>-271800000</v>
-      </c>
-      <c r="C18">
-        <v>-289900000</v>
-      </c>
-      <c r="D18">
-        <v>-264400000</v>
-      </c>
-      <c r="E18">
-        <v>-303700000</v>
-      </c>
-      <c r="F18">
-        <v>-186100000</v>
-      </c>
-      <c r="G18">
-        <v>-231900000</v>
-      </c>
-      <c r="H18">
-        <v>-343100000</v>
-      </c>
-      <c r="I18">
-        <v>-53800000</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>-197300000</v>
-      </c>
-      <c r="M18">
-        <v>-163100000</v>
-      </c>
-      <c r="N18">
-        <v>-17600000</v>
-      </c>
-      <c r="O18">
-        <v>-145300000</v>
-      </c>
-      <c r="P18">
-        <v>-75600000</v>
-      </c>
-      <c r="Q18">
-        <v>-140600000</v>
-      </c>
-      <c r="R18">
-        <v>-52600000</v>
-      </c>
-      <c r="S18">
-        <v>-27000000</v>
-      </c>
-      <c r="T18">
-        <v>-22500000</v>
-      </c>
-      <c r="U18">
-        <v>-25400000</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>-69300000</v>
-      </c>
-      <c r="X18">
-        <v>8700000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
-        <v>-78000000</v>
+        <v>-86100000</v>
       </c>
       <c r="C19">
-        <v>-79000000</v>
+        <v>-78100000</v>
       </c>
       <c r="D19">
-        <v>-79000000</v>
+        <v>-79200000</v>
       </c>
       <c r="E19">
-        <v>-80000000</v>
+        <v>-79100000</v>
       </c>
       <c r="F19">
-        <v>-72000000</v>
+        <v>-80100000</v>
       </c>
       <c r="G19">
+        <v>-71600000</v>
+      </c>
+      <c r="H19">
         <v>-72100000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-72700000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-72900000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-63000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-63900000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-64100000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-65000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-55500000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-56200000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-59100000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-56500000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-48100000</v>
-      </c>
-      <c r="S19">
-        <v>-47400000</v>
       </c>
       <c r="T19">
         <v>-47400000</v>
       </c>
       <c r="U19">
+        <v>-47400000</v>
+      </c>
+      <c r="V19">
         <v>-48700000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-37400000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-37500000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>-37400000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-37300000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>-29800000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-29700000</v>
-      </c>
-      <c r="AB19">
-        <v>-29600000</v>
       </c>
       <c r="AC19">
         <v>-29600000</v>
       </c>
       <c r="AD19">
+        <v>-29600000</v>
+      </c>
+      <c r="AE19">
         <v>-23000000</v>
-      </c>
-      <c r="AE19">
-        <v>-22900000</v>
       </c>
       <c r="AF19">
         <v>-22900000</v>
       </c>
       <c r="AG19">
-        <v>-22800000</v>
+        <v>-22900000</v>
       </c>
       <c r="AH19">
         <v>-22800000</v>
       </c>
       <c r="AI19">
+        <v>-22800000</v>
+      </c>
+      <c r="AJ19">
         <v>-13700000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-12100000</v>
       </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
       <c r="AM19">
         <v>0</v>
       </c>
       <c r="AN19">
         <v>0</v>
       </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>128000000</v>
+        <v>-442400000</v>
       </c>
       <c r="C20">
-        <v>26000000</v>
+        <v>280900000</v>
       </c>
       <c r="D20">
-        <v>-7000000</v>
+        <v>-177900000</v>
       </c>
       <c r="E20">
-        <v>59000000</v>
+        <v>270900000</v>
       </c>
       <c r="F20">
-        <v>113000000</v>
+        <v>-187600000</v>
       </c>
       <c r="G20">
+        <v>408200000</v>
+      </c>
+      <c r="H20">
         <v>-95700000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>180300000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-189000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-33000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>-13300000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>324200000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-54100000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>108100000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>110300000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>215100000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-159300000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>122600000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>40000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>120500000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-28300000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-37200000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>74500000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>21400000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-55800000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>3500000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>35800000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>13100000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>19200000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>42800000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>3600000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>21900000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>5800000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>1100000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>13200000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>27300000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>4200000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>8500000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>10200000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>15600000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>-646600000</v>
+      </c>
+      <c r="C21">
         <v>-194000000</v>
       </c>
-      <c r="C21">
-        <v>28000000</v>
-      </c>
       <c r="D21">
-        <v>-73000000</v>
+        <v>27600000</v>
       </c>
       <c r="E21">
+        <v>-72800000</v>
+      </c>
+      <c r="F21">
         <v>-572000000</v>
       </c>
-      <c r="F21">
-        <v>745000000</v>
-      </c>
       <c r="G21">
+        <v>744500000</v>
+      </c>
+      <c r="H21">
         <v>-372400000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-235500000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-221700000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-99600000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-82800000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>239500000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>213500000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-115000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-383100000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>62200000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-54200000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>18900000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>-210700000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-76400000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>185700000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-80500000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-383200000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>-7500000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-93400000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>-53500000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>-358500000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>-88500000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>-91400000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>27000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-144000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>211900000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>22100000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>196600000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>78500000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>404400000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>-51600000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>421400000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>-187500000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>681600000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>889000000</v>
+        <v>39600000</v>
       </c>
       <c r="C22">
-        <v>-5000000</v>
+        <v>888600000</v>
       </c>
       <c r="D22">
-        <v>-776000000</v>
+        <v>-4800000</v>
       </c>
       <c r="E22">
-        <v>-773000000</v>
+        <v>-775500000</v>
       </c>
       <c r="F22">
-        <v>1268000000</v>
+        <v>-772600000</v>
       </c>
       <c r="G22">
+        <v>1268100000</v>
+      </c>
+      <c r="H22">
         <v>-262800000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-243000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-565200000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>667400000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>835400000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-58600000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>81900000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>628700000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>154100000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-37100000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-737700000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>269100000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>170700000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>92200000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-50300000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>502400000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>-480800000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>-157100000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>-152900000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>396400000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>-317300000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>-44600000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-115100000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>578200000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>107900000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>156700000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-120800000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>44500000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>-376100000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>132600000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>-116600000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>300300000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>-512500000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>583600000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2572900000</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2661,11 +2826,11 @@
         <v>0</v>
       </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>3237200000</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
       <c r="G23">
         <v>0</v>
       </c>
@@ -2673,11 +2838,11 @@
         <v>0</v>
       </c>
       <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>3040100000</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
         <v>0</v>
       </c>
@@ -2685,11 +2850,11 @@
         <v>0</v>
       </c>
       <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
         <v>1514000000</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
       <c r="O23">
         <v>0</v>
       </c>
@@ -2697,11 +2862,11 @@
         <v>0</v>
       </c>
       <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>1506000000</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
       <c r="S23">
         <v>0</v>
       </c>
@@ -2709,23 +2874,23 @@
         <v>0</v>
       </c>
       <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
         <v>1024300000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>9500000</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
       <c r="X23">
         <v>0</v>
       </c>
       <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
         <v>1303200000</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
       <c r="AA23">
         <v>0</v>
       </c>
@@ -2733,11 +2898,11 @@
         <v>0</v>
       </c>
       <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
         <v>1383800000</v>
       </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
       <c r="AE23">
         <v>0</v>
       </c>
@@ -2745,11 +2910,11 @@
         <v>0</v>
       </c>
       <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
         <v>661800000</v>
       </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
       <c r="AI23">
         <v>0</v>
       </c>
@@ -2757,374 +2922,383 @@
         <v>0</v>
       </c>
       <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
         <v>977400000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>39100000</v>
       </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
       <c r="AN23">
         <v>0</v>
       </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>2612500000</v>
+      </c>
+      <c r="C24">
         <v>888600000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-4800000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-775500000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2464600000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1268100000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-262800000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-243000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>2474900000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>667400000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>835400000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-58600000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1595900000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>628700000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>154100000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>-37100000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>768300000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>269100000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>170700000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>92200000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>974000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>511900000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-480800000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>-157100000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>1150300000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>396400000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>-317300000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>-44600000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>1268700000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>578200000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>107900000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>156700000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>541000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>44500000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>-376100000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>132600000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>860800000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>339400000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>-512500000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>583600000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>22900000</v>
+      </c>
+      <c r="C25">
         <v>25700000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>24800000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>30900000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>23700000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>21700000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>22600000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>25400000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>21700000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>18600000</v>
-      </c>
-      <c r="K25">
-        <v>21300000</v>
       </c>
       <c r="L25">
         <v>21300000</v>
       </c>
       <c r="M25">
+        <v>21300000</v>
+      </c>
+      <c r="N25">
         <v>16600000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>19300000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>18000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>17800000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>18100000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>9500000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>15300000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>17400000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>13600000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>18800000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>14300000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>16800000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>9300000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>12200000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>12500000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>13900000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>10400000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>10500000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>9300000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>11000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>11400000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>8600000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>6800000</v>
-      </c>
-      <c r="AJ25">
-        <v>5400000</v>
       </c>
       <c r="AK25">
         <v>5400000</v>
       </c>
       <c r="AL25">
+        <v>5400000</v>
+      </c>
+      <c r="AM25">
         <v>5900000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>5500000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>4100000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>-86100000</v>
+      </c>
+      <c r="C26">
         <v>-78100000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-79200000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-79100000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-80100000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-71600000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-72100000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-72700000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-72900000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-63000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-63900000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-64100000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-65000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>-55500000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>-56200000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>-59100000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-56500000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>-48100000</v>
-      </c>
-      <c r="S26">
-        <v>-47400000</v>
       </c>
       <c r="T26">
         <v>-47400000</v>
       </c>
       <c r="U26">
+        <v>-47400000</v>
+      </c>
+      <c r="V26">
         <v>-48700000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-37400000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-37500000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>-37400000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>-37300000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>-29800000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>-29700000</v>
-      </c>
-      <c r="AB26">
-        <v>-29600000</v>
       </c>
       <c r="AC26">
         <v>-29600000</v>
       </c>
       <c r="AD26">
+        <v>-29600000</v>
+      </c>
+      <c r="AE26">
         <v>-23000000</v>
-      </c>
-      <c r="AE26">
-        <v>-22900000</v>
       </c>
       <c r="AF26">
         <v>-22900000</v>
       </c>
       <c r="AG26">
-        <v>-22800000</v>
+        <v>-22900000</v>
       </c>
       <c r="AH26">
         <v>-22800000</v>
       </c>
       <c r="AI26">
+        <v>-22800000</v>
+      </c>
+      <c r="AJ26">
         <v>-13700000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>-12100000</v>
       </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
       <c r="AL26">
         <v>0</v>
       </c>
@@ -3134,279 +3308,285 @@
       <c r="AN26">
         <v>0</v>
       </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
-        <v>0.1495</v>
+        <v>0.0638</v>
       </c>
       <c r="C27">
-        <v>0.1867</v>
+        <v>0.0762</v>
       </c>
       <c r="D27">
-        <v>0.1492</v>
+        <v>0.1707</v>
       </c>
       <c r="E27">
-        <v>0.0733</v>
+        <v>0.1356</v>
       </c>
       <c r="F27">
-        <v>0.073</v>
+        <v>0.0665</v>
       </c>
       <c r="G27">
+        <v>0.0344</v>
+      </c>
+      <c r="H27">
         <v>0.0584</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.0523</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.051</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.0454</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.0989</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.2795</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.156</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>0.0414</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>0.0992</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>0.1345</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>0.1501</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>0.0567</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>0.0759</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>0.09470000000000001</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.091</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.0842</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.1371</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>0.1315</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>0.1468</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>0.1164</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>0.1494</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>0.1618</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>0.1633</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>0.1662</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>0.2427</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>0.2611</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.295</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>0.3602</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>0.2828</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>0.3544</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>0.3135</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>0.3289</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>0.2973</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>0.2181</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>-212600000</v>
+      </c>
+      <c r="C28">
         <v>-625100000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-1434500000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-2174700000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-1385500000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-819900000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-1057200000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-886800000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-1089100000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-62200000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>312900000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-792000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-564400000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>244400000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>33800000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-473800000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-707200000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-275100000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-105000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-457500000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-409300000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>228800000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-439200000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-389800000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-267900000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>161000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-238500000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-211900000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-197800000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>233000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>92900100</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-225400100</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-313600000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-312200000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-486600000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-425900000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-164200000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-326900000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-504700000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-319100000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29">
-        <v>2200000</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="H29">
         <v>2200000</v>
       </c>
       <c r="I29">
+        <v>2200000</v>
+      </c>
+      <c r="J29">
         <v>2100000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1900000</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
       <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>500000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1900000</v>
       </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
       <c r="O29">
         <v>0</v>
       </c>
@@ -3414,181 +3594,190 @@
         <v>0</v>
       </c>
       <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
         <v>4400000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>2100000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>300000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>200000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>14900000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>35800000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-14800000</v>
       </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
         <v>1400000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>96600000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>-118100000</v>
+      </c>
+      <c r="C30">
         <v>-271800000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-289900000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-264400000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-303700000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-186100000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-231900000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-343100000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-53800000</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>-197300000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-163100000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-17600000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-145300000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-75600000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-140600000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-52600000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-27000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-22500000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-25400000</v>
       </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
       <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
         <v>-69300000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>8700000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>-118100000</v>
+      </c>
+      <c r="C31">
         <v>-271800000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-289900000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-264400000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-303700000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-186100000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-231900000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-343100000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-53800000</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>-197300000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-163100000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-17600000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-145300000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-75600000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-140600000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-52600000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-27000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-22500000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-25400000</v>
       </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
       <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
         <v>-69300000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>8700000</v>
       </c>
     </row>
